--- a/ARIATIC/ariatic pagos.xlsx
+++ b/ARIATIC/ariatic pagos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Juan Pablo Giraldo</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>abono cristina</t>
-  </si>
-  <si>
-    <t>abono critina</t>
   </si>
   <si>
     <t>Abono</t>
@@ -182,9 +179,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -198,6 +192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,50 +518,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
@@ -612,7 +609,7 @@
         <v>42559</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>100000</v>
@@ -651,29 +648,43 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="3">
+        <v>42573</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100000</v>
+      </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:D21" si="0">D4-C4</f>
         <v>1000000</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F21" si="1">F4-E4</f>
         <v>210000</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>50000</v>
+      </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H21" si="2">H4-G4</f>
         <v>370000</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J21" si="3">J4-I4</f>
         <v>100000</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>50000</v>
+      </c>
       <c r="L5" s="1">
         <f t="shared" ref="L5:L21" si="4">L4-K4</f>
         <v>320000</v>
@@ -685,7 +696,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -695,7 +706,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
@@ -705,7 +716,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -714,7 +725,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
@@ -724,7 +735,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -734,7 +745,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -743,7 +754,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
@@ -753,7 +764,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
@@ -763,7 +774,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -772,7 +783,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -782,7 +793,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
@@ -792,7 +803,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -801,7 +812,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1">
@@ -811,7 +822,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
@@ -821,7 +832,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -830,7 +841,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
@@ -840,7 +851,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
@@ -850,7 +861,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,7 +870,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
@@ -869,7 +880,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
@@ -879,7 +890,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -888,7 +899,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1">
@@ -898,7 +909,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
@@ -908,7 +919,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -917,7 +928,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
@@ -927,7 +938,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
@@ -937,7 +948,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -946,7 +957,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
@@ -956,7 +967,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
@@ -966,7 +977,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -975,7 +986,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
@@ -985,7 +996,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
@@ -995,7 +1006,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,7 +1015,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
@@ -1014,7 +1025,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
@@ -1024,7 +1035,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1033,7 +1044,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
@@ -1043,7 +1054,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
@@ -1053,7 +1064,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1062,7 +1073,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
@@ -1072,7 +1083,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
@@ -1082,7 +1093,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,7 +1102,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
@@ -1101,7 +1112,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
@@ -1111,7 +1122,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,7 +1131,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
@@ -1130,7 +1141,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>370000</v>
+        <v>320000</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
@@ -1140,59 +1151,59 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1">
         <f t="shared" si="4"/>
-        <v>320000</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="s">
+      <c r="J25" s="13"/>
+      <c r="K25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>42494</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6">
         <v>200000</v>
@@ -1697,16 +1708,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
